--- a/FM Einheit/files/FMEinheitv1_2.xlsx
+++ b/FM Einheit/files/FMEinheitv1_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_130c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58CC8AB6-3DB9-4DF6-84FE-42CC49296BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3E6E11-806F-4646-A982-6FAF8EC4579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
     <t>TSSOP-28</t>
   </si>
   <si>
-    <t>771-PCA9685PW.118</t>
+    <t>771-PCA9685PW,118</t>
   </si>
   <si>
     <t>D30</t>
@@ -369,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +574,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -942,7 +948,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -990,6 +996,22 @@
     <xf numFmtId="164" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,34 +1021,14 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1386,7 +1388,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1401,17 +1403,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1441,592 +1443,589 @@
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="6"/>
       <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>15</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="29" t="str">
+      <c r="F4" s="28" t="str">
         <f t="shared" ref="F4:F10" si="0">"0603"</f>
         <v>0603</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>8</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="29" t="str">
+      <c r="F6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>1</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="29" t="str">
+      <c r="F8" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="29" t="str">
+      <c r="F9" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="28" t="str">
         <f>"0805"</f>
         <v>0805</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>35</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="27" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>2</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>45</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>1</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="26" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="27" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="27">
         <v>2</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29" t="str">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="str">
         <f t="shared" ref="F16" si="1">"0603"</f>
         <v>0603</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>62</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="25" t="s">
+      <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="21">
         <v>12</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="24" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="27" t="s">
+      <c r="G18" s="28"/>
+      <c r="H18" t="s">
         <v>67</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="25" t="s">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="21">
         <v>7</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="26"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="24" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="26"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="25" t="s">
+      <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="21">
         <v>10</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="27" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="21">
         <v>1</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="27" t="s">
+      <c r="G22" s="27"/>
+      <c r="H22" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="25" t="s">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="21">
         <v>1</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="25" t="s">
+      <c r="A24" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="25" t="s">
+      <c r="A25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="21">
         <v>4</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="26"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="25" t="s">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="21">
         <v>2</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="25" t="s">
+      <c r="A27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="21">
         <v>2</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="25" t="s">
+      <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="21">
         <v>2</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="25" t="s">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="21">
         <v>1</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="31" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="22" t="s">
         <v>106</v>
       </c>
       <c r="I29" s="8"/>
@@ -2045,19 +2044,19 @@
       <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="29">
         <v>1</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/FM Einheit/files/FMEinheitv1_2.xlsx
+++ b/FM Einheit/files/FMEinheitv1_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26920"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_130c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA3E6E11-806F-4646-A982-6FAF8EC4579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="8_{B125FBDB-108C-463C-B9EF-5965B147BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01374C77-420B-4E17-B14D-A2AC09A268D2}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>FM Einheit, v1.2</t>
   </si>
@@ -95,7 +95,7 @@
     <t>10K</t>
   </si>
   <si>
-    <t>667-ERA-3AEB103V</t>
+    <t>667-ERJ-3EKF1002V</t>
   </si>
   <si>
     <t>R4</t>
@@ -128,7 +128,7 @@
     <t>100n</t>
   </si>
   <si>
-    <t>81-GCM188R71H104JA7D</t>
+    <t>81-GCM188R71E104JAD</t>
   </si>
   <si>
     <t>C1, C2</t>
@@ -140,7 +140,7 @@
     <t>10u</t>
   </si>
   <si>
-    <t>81-GRM21BR61E106KA3L</t>
+    <t>81-GRM21BR61E106KA73L</t>
   </si>
   <si>
     <t>D23,D24</t>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>PCB FM_Einheit v 1.2</t>
+  </si>
+  <si>
+    <t>Panel FM_Einheit</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000000000000"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,6 +581,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
@@ -948,7 +957,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -962,13 +971,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,9 +990,6 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1012,6 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1021,12 +1022,20 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,37 +1394,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
     <col min="8" max="8" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:8" ht="20.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1440,632 +1448,615 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="24" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="27" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>15</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="28" t="str">
+      <c r="F4" s="27" t="str">
         <f t="shared" ref="F4:F10" si="0">"0603"</f>
         <v>0603</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="27" t="s">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="27" t="s">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>8</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="28" t="str">
+      <c r="F6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="27" t="s">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>1</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="28" t="str">
+      <c r="F7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="27" t="s">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="28" t="str">
+      <c r="F8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="27" t="s">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="28" t="s">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>2</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="28" t="str">
+      <c r="F10" s="27" t="str">
         <f>"0805"</f>
         <v>0805</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="27" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>2</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28" t="s">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="28" t="s">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>2</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="27" t="s">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>1</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="28" t="s">
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>1</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
+      <c r="E14" s="27"/>
+      <c r="F14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="27" t="s">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="27" t="s">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28" t="str">
+      <c r="E16" s="27"/>
+      <c r="F16" s="27" t="str">
         <f t="shared" ref="F16" si="1">"0603"</f>
         <v>0603</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="25" t="s">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>7</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="27" t="s">
+      <c r="E19" s="27"/>
+      <c r="F19" s="26" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>1</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="27" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="18">
         <v>10</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" t="s">
+      <c r="G21" s="30"/>
+      <c r="H21" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <v>1</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" t="s">
+      <c r="G22" s="26"/>
+      <c r="H22" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <v>1</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>4</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="18">
         <v>2</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B27" s="18">
         <v>2</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <v>2</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="18">
         <v>1</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="22" t="s">
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="12" t="s">
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="29" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="30">
         <v>1</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="17"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A17:G17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H29" r:id="rId1" xr:uid="{2051E5CB-28C9-46EB-B4B9-DA9BD6360BB7}"/>
+    <hyperlink ref="H18" r:id="rId2" xr:uid="{ACFB4C1E-9B43-4589-800C-112C1E374ABC}"/>
+    <hyperlink ref="H21" r:id="rId3" xr:uid="{59B870CE-B56A-4680-BC61-3BE864F14BD0}"/>
+    <hyperlink ref="H22" r:id="rId4" xr:uid="{86099515-3BAB-4EA2-B081-3B9FD1412889}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FM Einheit/files/FMEinheitv1_2.xlsx
+++ b/FM Einheit/files/FMEinheitv1_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_130c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="8_{B125FBDB-108C-463C-B9EF-5965B147BBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01374C77-420B-4E17-B14D-A2AC09A268D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A66995A-6CB4-40EC-BACD-CC371758653C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,13 +71,13 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>Resistor, 0.1%, Thin film</t>
+    <t>Resistor, 1%, 1/10W, Thin film</t>
   </si>
   <si>
     <t>1K</t>
   </si>
   <si>
-    <t>667-ERJ-S03F1001V</t>
+    <t>603-RT0603BRB071KL</t>
   </si>
   <si>
     <t>R79,R80</t>
@@ -86,7 +86,7 @@
     <t>4K7</t>
   </si>
   <si>
-    <t>667-ERA-3ARB472V</t>
+    <t>603-RT0603FRE074K7L</t>
   </si>
   <si>
     <t>R3,R9,R11,R12,R13,R19,R20,R21</t>
@@ -122,7 +122,7 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>Ceramic &gt;= 16V</t>
+    <t>Ceramic &gt;= 16V, X7R</t>
   </si>
   <si>
     <t>100n</t>
@@ -134,13 +134,13 @@
     <t>C1, C2</t>
   </si>
   <si>
-    <t>Ceramic &gt;= 25V</t>
+    <t>Ceramic &gt;= 25V, X5R</t>
   </si>
   <si>
     <t>10u</t>
   </si>
   <si>
-    <t>81-GRM21BR61E106KA73L</t>
+    <t>81-GRM21BR61E106KA3L</t>
   </si>
   <si>
     <t>D23,D24</t>
@@ -218,7 +218,7 @@
     <t>Ferrite_Bead</t>
   </si>
   <si>
-    <t>Ferrite bead</t>
+    <t>Ferrite bead 1K 1LN</t>
   </si>
   <si>
     <t>710-742792664</t>
@@ -957,7 +957,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1013,6 +1013,8 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,19 +1025,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1391,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="G4" sqref="G4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1412,16 +1406,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1450,109 +1444,109 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="28">
         <v>15</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="27" t="str">
+      <c r="F4" s="28" t="str">
         <f t="shared" ref="F4:F10" si="0">"0603"</f>
         <v>0603</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="27" t="str">
+      <c r="F5" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="28">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="27" t="str">
+      <c r="F6" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="28">
         <v>1</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
@@ -1562,22 +1556,22 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="28">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="27" t="str">
+      <c r="F8" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
@@ -1587,92 +1581,92 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="28">
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="27" t="str">
+      <c r="F9" s="28" t="str">
         <f t="shared" si="0"/>
         <v>0603</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="28">
         <v>2</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="28" t="str">
         <f>"0805"</f>
         <v>0805</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="28">
         <v>2</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="27" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="28">
         <v>2</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="28" t="s">
@@ -1681,20 +1675,20 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27" t="s">
+      <c r="E13" s="28"/>
+      <c r="F13" s="28" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="28" t="s">
@@ -1703,64 +1697,64 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="28">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="22" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="28">
         <v>1</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="27" t="s">
         <v>58</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="27">
         <v>2</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="str">
+      <c r="E16" s="28"/>
+      <c r="F16" s="28" t="str">
         <f t="shared" ref="F16" si="1">"0603"</f>
         <v>0603</v>
       </c>
@@ -1770,15 +1764,15 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
@@ -1788,15 +1782,15 @@
       <c r="B18" s="18">
         <v>12</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="20" t="s">
         <v>67</v>
       </c>
@@ -1808,14 +1802,14 @@
       <c r="B19" s="18">
         <v>7</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="27" t="s">
         <v>71</v>
       </c>
       <c r="G19" s="28" t="s">
@@ -1830,15 +1824,15 @@
       <c r="B20" s="18">
         <v>1</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="29" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="27" t="s">
         <v>76</v>
       </c>
       <c r="H20" s="18"/>
@@ -1850,19 +1844,19 @@
       <c r="B21" s="18">
         <v>10</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="20" t="s">
         <v>82</v>
       </c>
@@ -1874,19 +1868,19 @@
       <c r="B22" s="18">
         <v>1</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="20" t="s">
         <v>86</v>
       </c>
@@ -1898,13 +1892,13 @@
       <c r="B23" s="18">
         <v>1</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="30" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="18"/>
@@ -1916,13 +1910,13 @@
       <c r="B24" s="18">
         <v>1</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="31" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29" t="s">
         <v>92</v>
       </c>
       <c r="H24" s="18"/>
@@ -1934,15 +1928,15 @@
       <c r="B25" s="18">
         <v>4</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="31" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="18"/>
@@ -1954,13 +1948,13 @@
       <c r="B26" s="18">
         <v>2</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -1969,13 +1963,13 @@
       <c r="B27" s="18">
         <v>2</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
@@ -1984,13 +1978,13 @@
       <c r="B28" s="18">
         <v>2</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="30"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
@@ -1999,15 +1993,15 @@
       <c r="B29" s="18">
         <v>1</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="30"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
       <c r="H29" s="19" t="s">
         <v>106</v>
       </c>
@@ -2025,10 +2019,10 @@
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="29">
         <v>1</v>
       </c>
       <c r="C31" s="14"/>
